--- a/JumpingDungeon/Designer/真英雄30秒.xlsx
+++ b/JumpingDungeon/Designer/真英雄30秒.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WEGO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\JumpingDungeon\JumpingDungeon\Designer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B556A363-82B7-4159-B22B-3696C58C455A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E733158B-656B-4CA0-B81F-2FF5AA86572A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="1" xr2:uid="{28DA23CA-66AD-4F66-91A4-0F7985B31A2C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="2" xr2:uid="{28DA23CA-66AD-4F66-91A4-0F7985B31A2C}"/>
   </bookViews>
   <sheets>
     <sheet name="玩法特色" sheetId="2" r:id="rId1"/>
     <sheet name="怪物" sheetId="4" r:id="rId2"/>
     <sheet name="數值" sheetId="3" r:id="rId3"/>
     <sheet name="陷阱" sheetId="5" r:id="rId4"/>
-    <sheet name="介面" sheetId="6" r:id="rId5"/>
+    <sheet name="帶作項目" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="199">
   <si>
     <t>冰</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,14 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>減少血量上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>錢</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,9 +134,6 @@
     <t>預設攻擊砍人的傷害</t>
   </si>
   <si>
-    <t>防禦可撐幾下攻擊後破損，防禦時無傷害</t>
-  </si>
-  <si>
     <t>變身時間延長道具的掉落機率</t>
   </si>
   <si>
@@ -173,10 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>防禦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每秒扣除血量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -329,10 +314,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>減緩攻擊及移動速度，會跌加，加滿後冰凍一小段時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>毒氣塔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -570,6 +551,273 @@
   </si>
   <si>
     <t>擊退距離</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦斯怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆闢惡魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>針頭魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>介面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物元件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裝備種類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詛咒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量及防禦下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>減緩攻擊及移動速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被連續打到增加持續時間但效果不疊加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>綠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1隨機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2隨機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3隨機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飾品1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飾品2</t>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用力量換算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>護盾上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>護盾回復量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>護盾總上限，未破損前不會扣除血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破損後每秒恢復多少護盾值，回滿才會繼續保護</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>護盾上限或回復量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無隨機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數值+20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數值+40%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數值+100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裝備隨機屬性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裝備要有等級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回復血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加變身時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金幣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回血藥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>變身藥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻擊藥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無敵藥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量x3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫時無敵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藥物道具掉落機率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數值+80%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用刀子殺死怪物掉落額外金錢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡時有機率50%血量復活，每次戰鬥只有一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一段時間沒有受到傷害可持續回血，受到傷害後取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連續擊殺可增加傷害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>護盾破損時有機率放出無傷害有效果元素攻擊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀子有機率附加元素屬性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要用額外商城幣嗎?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落機率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加機率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>減秒數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加%數</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,7 +825,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -593,8 +841,16 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -619,8 +875,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -654,13 +916,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -683,6 +954,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1012,47 +1310,47 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1066,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99AA9F3-395F-411A-BE33-1EC73B051AE5}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1083,298 +1381,316 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="3">
         <v>0.5</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D4" s="3">
         <v>0.5</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D5" s="3">
         <v>1.5</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3">
         <v>2</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="J9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="J10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="J11" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K16" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J17" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K17" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J18" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J21" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J22" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J23" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J24" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1386,10 +1702,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7C6A9C-EDB1-457B-AFB7-156FE8440A90}">
-  <dimension ref="B2:K24"/>
+  <dimension ref="B2:W35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C13:C15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1397,219 +1713,559 @@
     <col min="3" max="3" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="I8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>147</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C9" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>26</v>
+        <v>146</v>
+      </c>
+      <c r="O9" t="s">
+        <v>178</v>
+      </c>
+      <c r="P9" t="s">
+        <v>174</v>
+      </c>
+      <c r="T9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C10" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I10" t="s">
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="O10" t="s">
+        <v>179</v>
+      </c>
+      <c r="P10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="D11" t="s">
+        <v>162</v>
+      </c>
+      <c r="I11" t="s">
+        <v>144</v>
+      </c>
+      <c r="J11" t="s">
+        <v>145</v>
+      </c>
+      <c r="O11" t="s">
+        <v>180</v>
+      </c>
+      <c r="P11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C12" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" t="s">
+        <v>163</v>
+      </c>
+      <c r="O12" t="s">
+        <v>181</v>
+      </c>
+      <c r="P12" t="s">
+        <v>183</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="I13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O13" t="s">
+        <v>176</v>
+      </c>
+      <c r="U13" t="s">
+        <v>195</v>
+      </c>
+      <c r="V13" s="14">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" t="s">
+        <v>10</v>
+      </c>
+      <c r="U14" t="s">
+        <v>149</v>
+      </c>
+      <c r="V14" s="14">
+        <f>(1-$V$13)*W14</f>
+        <v>7.9999999999999988E-2</v>
+      </c>
+      <c r="W14" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
+        <v>148</v>
+      </c>
+      <c r="O15" t="s">
+        <v>177</v>
+      </c>
+      <c r="U15" t="s">
+        <v>150</v>
+      </c>
+      <c r="V15" s="14">
+        <f t="shared" ref="V15:V18" si="0">(1-$V$13)*W15</f>
+        <v>5.9999999999999984E-2</v>
+      </c>
+      <c r="W15" s="14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" t="s">
+        <v>164</v>
+      </c>
+      <c r="U16" t="s">
+        <v>151</v>
+      </c>
+      <c r="V16" s="14">
+        <f t="shared" si="0"/>
+        <v>3.3999999999999996E-2</v>
+      </c>
+      <c r="W16" s="14">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" t="s">
+        <v>164</v>
+      </c>
+      <c r="U17" t="s">
+        <v>152</v>
+      </c>
+      <c r="V17" s="14">
+        <f t="shared" si="0"/>
+        <v>1.5999999999999997E-2</v>
+      </c>
+      <c r="W17" s="14">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U18" t="s">
+        <v>168</v>
+      </c>
+      <c r="V18" s="14">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999985E-3</v>
+      </c>
+      <c r="W18" s="14">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="W19" s="14">
+        <f>SUM(W14:W18)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" t="s">
+        <v>171</v>
+      </c>
+      <c r="O20" t="s">
+        <v>149</v>
+      </c>
+      <c r="P20" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>151</v>
+      </c>
+      <c r="R20" t="s">
+        <v>152</v>
+      </c>
+      <c r="S20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" t="s">
         <v>28</v>
       </c>
-      <c r="I11" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+      <c r="I21" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="M21" t="s">
+        <v>171</v>
+      </c>
+      <c r="O21" t="s">
+        <v>165</v>
+      </c>
+      <c r="P21" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>167</v>
+      </c>
+      <c r="R21" t="s">
+        <v>185</v>
+      </c>
+      <c r="S21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" t="s">
+        <v>160</v>
+      </c>
+      <c r="M22" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>153</v>
+      </c>
+      <c r="R22" t="s">
+        <v>154</v>
+      </c>
+      <c r="S22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="M23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="K24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" t="s">
+        <v>98</v>
+      </c>
+      <c r="K25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
         <v>60</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D26" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26" t="s">
+        <v>100</v>
+      </c>
+      <c r="K26" t="s">
+        <v>54</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="P26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" t="s">
+        <v>61</v>
+      </c>
+      <c r="O27" t="s">
+        <v>196</v>
+      </c>
+      <c r="P27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28" t="s">
+        <v>97</v>
+      </c>
+      <c r="O28" t="s">
+        <v>196</v>
+      </c>
+      <c r="P28" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>184</v>
+      </c>
+      <c r="K29" t="s">
+        <v>98</v>
+      </c>
+      <c r="O29" t="s">
+        <v>196</v>
+      </c>
+      <c r="P29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="K30" t="s">
+        <v>99</v>
+      </c>
+      <c r="O30" t="s">
+        <v>197</v>
+      </c>
+      <c r="P30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
+        <v>100</v>
+      </c>
+      <c r="O31" t="s">
+        <v>198</v>
+      </c>
+      <c r="P31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="K32" t="s">
+        <v>63</v>
+      </c>
+      <c r="O32" t="s">
+        <v>196</v>
+      </c>
+      <c r="P32" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K34" t="s">
         <v>57</v>
       </c>
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    </row>
+    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K35" t="s">
         <v>60</v>
-      </c>
-      <c r="C14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1631,47 +2287,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1682,52 +2338,75 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3099E26-46BB-4EE6-9FB4-036B03FDC576}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/JumpingDungeon/Designer/真英雄30秒.xlsx
+++ b/JumpingDungeon/Designer/真英雄30秒.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\JumpingDungeon\JumpingDungeon\Designer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E733158B-656B-4CA0-B81F-2FF5AA86572A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AB5DE0F6-8954-412D-A578-3CDA1F29C971}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="2" xr2:uid="{28DA23CA-66AD-4F66-91A4-0F7985B31A2C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="4" xr2:uid="{28DA23CA-66AD-4F66-91A4-0F7985B31A2C}"/>
   </bookViews>
   <sheets>
     <sheet name="玩法特色" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="202">
   <si>
     <t>冰</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -685,26 +685,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>無隨機</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>數值+20%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>數值+40%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>數值+100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>裝備隨機屬性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -753,10 +737,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>力量x3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>暫時無敵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -765,10 +745,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>數值+80%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>特殊技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -801,10 +777,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>掉落機率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>無</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -818,6 +790,46 @@
   </si>
   <si>
     <t>加%數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度藥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加移動速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裝備掉落機率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等級不提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4隨機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隨機數值固定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品質</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>獲得順序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1365,7 +1377,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E11"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1704,8 +1716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7C6A9C-EDB1-457B-AFB7-156FE8440A90}">
   <dimension ref="B2:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1767,7 +1779,10 @@
         <v>147</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
+      </c>
+      <c r="U8" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
@@ -1784,13 +1799,13 @@
         <v>146</v>
       </c>
       <c r="O9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="T9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
@@ -1807,10 +1822,10 @@
         <v>34</v>
       </c>
       <c r="O10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
@@ -1827,10 +1842,10 @@
         <v>145</v>
       </c>
       <c r="O11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P11" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
@@ -1841,13 +1856,13 @@
         <v>163</v>
       </c>
       <c r="O12" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P12" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
@@ -1855,10 +1870,13 @@
         <v>141</v>
       </c>
       <c r="O13" t="s">
-        <v>176</v>
+        <v>193</v>
+      </c>
+      <c r="P13" t="s">
+        <v>194</v>
       </c>
       <c r="U13" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="V13" s="14">
         <v>0.8</v>
@@ -1878,7 +1896,7 @@
         <v>21</v>
       </c>
       <c r="O14" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="U14" t="s">
         <v>149</v>
@@ -1908,7 +1926,7 @@
         <v>148</v>
       </c>
       <c r="O15" t="s">
-        <v>177</v>
+        <v>10</v>
       </c>
       <c r="U15" t="s">
         <v>150</v>
@@ -1937,6 +1955,9 @@
       <c r="J16" t="s">
         <v>164</v>
       </c>
+      <c r="O16" t="s">
+        <v>173</v>
+      </c>
       <c r="U16" t="s">
         <v>151</v>
       </c>
@@ -1983,7 +2004,7 @@
         <v>32</v>
       </c>
       <c r="U18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="V18" s="14">
         <f t="shared" si="0"/>
@@ -2004,7 +2025,7 @@
         <v>158</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="W19" s="14">
         <f>SUM(W14:W18)</f>
@@ -2028,7 +2049,7 @@
         <v>21</v>
       </c>
       <c r="M20" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="O20" t="s">
         <v>149</v>
@@ -2043,7 +2064,7 @@
         <v>152</v>
       </c>
       <c r="S20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
@@ -2063,22 +2084,19 @@
         <v>24</v>
       </c>
       <c r="M21" t="s">
-        <v>171</v>
-      </c>
-      <c r="O21" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P21" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="Q21" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="R21" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="S21" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
@@ -2101,16 +2119,10 @@
         <v>160</v>
       </c>
       <c r="M22" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="R22" t="s">
-        <v>154</v>
-      </c>
-      <c r="S22" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
@@ -2127,7 +2139,7 @@
         <v>161</v>
       </c>
       <c r="M23" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
@@ -2172,10 +2184,10 @@
         <v>54</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="P26" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
@@ -2186,10 +2198,10 @@
         <v>61</v>
       </c>
       <c r="O27" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="P27" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
@@ -2200,24 +2212,24 @@
         <v>97</v>
       </c>
       <c r="O28" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="P28" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I29" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="K29" t="s">
         <v>98</v>
       </c>
       <c r="O29" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="P29" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
@@ -2225,10 +2237,10 @@
         <v>99</v>
       </c>
       <c r="O30" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="P30" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
@@ -2236,10 +2248,10 @@
         <v>100</v>
       </c>
       <c r="O31" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="P31" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.25">
@@ -2247,10 +2259,10 @@
         <v>63</v>
       </c>
       <c r="O32" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="P32" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="11:11" x14ac:dyDescent="0.25">
@@ -2338,15 +2350,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3099E26-46BB-4EE6-9FB4-036B03FDC576}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>136</v>
       </c>
@@ -2354,7 +2366,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -2365,10 +2377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>103</v>
-      </c>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>139</v>
       </c>
@@ -2376,37 +2385,59 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>104</v>
-      </c>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/JumpingDungeon/Designer/真英雄30秒.xlsx
+++ b/JumpingDungeon/Designer/真英雄30秒.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\JumpingDungeon\JumpingDungeon\Designer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AB5DE0F6-8954-412D-A578-3CDA1F29C971}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA2F93A-286F-4E62-AE8C-462C36ECB75C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="4" xr2:uid="{28DA23CA-66AD-4F66-91A4-0F7985B31A2C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="1" xr2:uid="{28DA23CA-66AD-4F66-91A4-0F7985B31A2C}"/>
   </bookViews>
   <sheets>
     <sheet name="玩法特色" sheetId="2" r:id="rId1"/>
     <sheet name="怪物" sheetId="4" r:id="rId2"/>
     <sheet name="數值" sheetId="3" r:id="rId3"/>
-    <sheet name="陷阱" sheetId="5" r:id="rId4"/>
-    <sheet name="帶作項目" sheetId="6" r:id="rId5"/>
+    <sheet name="工作表1" sheetId="7" r:id="rId4"/>
+    <sheet name="陷阱" sheetId="5" r:id="rId5"/>
+    <sheet name="帶作項目" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="221">
   <si>
     <t>冰</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中，朝前方揮舞90度扇形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>慢，朝前方揮舞180度半圓範圍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -830,6 +827,78 @@
   </si>
   <si>
     <t>獲得順序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藥水類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裝備</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>錢袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4葉草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寶相</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鏈球怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中，朝左右兩邊生出尖刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_e01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_e03</t>
+  </si>
+  <si>
+    <t>char_e04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_e05</t>
+  </si>
+  <si>
+    <t>char_e07</t>
+  </si>
+  <si>
+    <t>char_e08</t>
+  </si>
+  <si>
+    <t>char_e09</t>
+  </si>
+  <si>
+    <t>char_e10</t>
+  </si>
+  <si>
+    <t>char_e11</t>
+  </si>
+  <si>
+    <t>char_e12</t>
+  </si>
+  <si>
+    <t>char_e02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_e06</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -862,7 +931,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -890,6 +959,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,7 +1018,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -989,10 +1064,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1010,6 +1088,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>26289</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>74914</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{354684AF-11E1-48AB-8386-C0DD0F34485B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="57150"/>
+          <a:ext cx="18285714" cy="10285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>16764</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>8239</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E78D240-9402-441E-8D8B-7F6C3515CF3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="10467975"/>
+          <a:ext cx="18285714" cy="10285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>683514</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>36814</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="圖片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A66EDA4-1288-4500-A443-AEC72B465A7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="20974050"/>
+          <a:ext cx="18285714" cy="10285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1322,47 +1537,47 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1376,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99AA9F3-395F-411A-BE33-1EC73B051AE5}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1386,6 +1601,7 @@
     <col min="2" max="2" width="37.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="49.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1393,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
@@ -1402,307 +1618,346 @@
         <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>208</v>
       </c>
       <c r="D3" s="3">
         <v>0.5</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8" t="s">
+        <v>219</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" s="3">
         <v>0.5</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="3">
         <v>1.5</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="3">
         <v>2</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>212</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="J7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="J8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>135</v>
+        <v>81</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>215</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>216</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>132</v>
+        <v>81</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>218</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J20" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1716,8 +1971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7C6A9C-EDB1-457B-AFB7-156FE8440A90}">
   <dimension ref="B2:W35"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1727,156 +1982,162 @@
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
         <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
         <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="U8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I10" t="s">
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I11" t="s">
+        <v>143</v>
+      </c>
+      <c r="J11" t="s">
         <v>144</v>
       </c>
-      <c r="J11" t="s">
-        <v>145</v>
-      </c>
       <c r="O11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C12" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O12" t="s">
+        <v>176</v>
+      </c>
+      <c r="P12" t="s">
         <v>177</v>
       </c>
-      <c r="P12" t="s">
-        <v>178</v>
+      <c r="S12" t="s">
+        <v>201</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I13" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O13" t="s">
+        <v>192</v>
+      </c>
+      <c r="P13" t="s">
         <v>193</v>
       </c>
-      <c r="P13" t="s">
-        <v>194</v>
+      <c r="S13" t="s">
+        <v>202</v>
       </c>
       <c r="U13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="V13" s="14">
         <v>0.8</v>
@@ -1884,22 +2145,25 @@
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O14" t="s">
-        <v>172</v>
+        <v>171</v>
+      </c>
+      <c r="S14" t="s">
+        <v>203</v>
       </c>
       <c r="U14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="V14" s="14">
         <f>(1-$V$13)*W14</f>
@@ -1911,25 +2175,25 @@
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V15" s="14">
         <f t="shared" ref="V15:V18" si="0">(1-$V$13)*W15</f>
@@ -1941,25 +2205,25 @@
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
         <v>54</v>
       </c>
-      <c r="D16" t="s">
-        <v>55</v>
-      </c>
       <c r="I16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="V16" s="14">
         <f t="shared" si="0"/>
@@ -1971,22 +2235,22 @@
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
         <v>61</v>
       </c>
-      <c r="D17" t="s">
-        <v>62</v>
-      </c>
       <c r="I17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="V17" s="14">
         <f t="shared" si="0"/>
@@ -1998,13 +2262,13 @@
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V18" s="14">
         <f t="shared" si="0"/>
@@ -2016,16 +2280,16 @@
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="W19" s="14">
         <f>SUM(W14:W18)</f>
@@ -2034,250 +2298,259 @@
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O20" t="s">
+        <v>148</v>
+      </c>
+      <c r="P20" t="s">
         <v>149</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>150</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>151</v>
       </c>
-      <c r="R20" t="s">
-        <v>152</v>
-      </c>
       <c r="S20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K21" t="s">
         <v>23</v>
       </c>
-      <c r="C21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="K21" t="s">
-        <v>24</v>
-      </c>
       <c r="M21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P21" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q21" t="s">
         <v>153</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>154</v>
       </c>
-      <c r="R21" t="s">
-        <v>155</v>
-      </c>
       <c r="S21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G22" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K22" t="s">
         <v>159</v>
       </c>
-      <c r="I22" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="K22" t="s">
-        <v>160</v>
-      </c>
       <c r="M22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
         <v>63</v>
       </c>
-      <c r="D23" t="s">
-        <v>64</v>
-      </c>
       <c r="I23" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>99</v>
+        <v>32</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>98</v>
       </c>
       <c r="K24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
         <v>57</v>
       </c>
-      <c r="D25" t="s">
-        <v>58</v>
-      </c>
-      <c r="I25" t="s">
-        <v>98</v>
+      <c r="I25" s="16" t="s">
+        <v>97</v>
       </c>
       <c r="K25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
-      </c>
-      <c r="I26" t="s">
-        <v>100</v>
+        <v>58</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="K26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I27" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="J27" t="s">
+        <v>204</v>
       </c>
       <c r="K27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I28" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="J28" t="s">
+        <v>206</v>
       </c>
       <c r="K28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I29" t="s">
-        <v>179</v>
+        <v>178</v>
+      </c>
+      <c r="J29" t="s">
+        <v>205</v>
       </c>
       <c r="K29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="K30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="K31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="K32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2288,6 +2561,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824651F6-3A72-478B-BE03-FD0373391D72}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E111" sqref="E111"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CABFAC7-57DB-4D44-9F2D-F600B53C5AE4}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -2299,47 +2588,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
         <v>66</v>
-      </c>
-      <c r="B2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
         <v>68</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
         <v>70</v>
-      </c>
-      <c r="B4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
         <v>72</v>
-      </c>
-      <c r="B5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
         <v>74</v>
-      </c>
-      <c r="B6" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2348,30 +2637,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3099E26-46BB-4EE6-9FB4-036B03FDC576}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -2379,7 +2668,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -2387,57 +2676,57 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/JumpingDungeon/Designer/真英雄30秒.xlsx
+++ b/JumpingDungeon/Designer/真英雄30秒.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\JumpingDungeon\JumpingDungeon\Designer\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA2F93A-286F-4E62-AE8C-462C36ECB75C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="1" xr2:uid="{28DA23CA-66AD-4F66-91A4-0F7985B31A2C}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="28800" windowHeight="12135" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="玩法特色" sheetId="2" r:id="rId1"/>
@@ -905,7 +899,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1110,7 +1104,7 @@
         <xdr:cNvPr id="2" name="圖片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{354684AF-11E1-48AB-8386-C0DD0F34485B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{354684AF-11E1-48AB-8386-C0DD0F34485B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1154,7 +1148,7 @@
         <xdr:cNvPr id="3" name="圖片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E78D240-9402-441E-8D8B-7F6C3515CF3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4E78D240-9402-441E-8D8B-7F6C3515CF3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1198,7 +1192,7 @@
         <xdr:cNvPr id="4" name="圖片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A66EDA4-1288-4500-A443-AEC72B465A7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A66EDA4-1288-4500-A443-AEC72B465A7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1270,7 +1264,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1322,7 +1316,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1516,14 +1510,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F77BCB-E548-4A96-B15B-1F3476446BB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1588,10 +1582,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99AA9F3-395F-411A-BE33-1EC73B051AE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -1968,11 +1962,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7C6A9C-EDB1-457B-AFB7-156FE8440A90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2561,7 +2555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824651F6-3A72-478B-BE03-FD0373391D72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
@@ -2577,7 +2571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CABFAC7-57DB-4D44-9F2D-F600B53C5AE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2638,7 +2632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3099E26-46BB-4EE6-9FB4-036B03FDC576}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/JumpingDungeon/Designer/真英雄30秒.xlsx
+++ b/JumpingDungeon/Designer/真英雄30秒.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\JumpingDungeon\JumpingDungeon\Designer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D231049B-048F-48B8-AC65-8D29C02B83E9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="28800" windowHeight="12135" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="玩法特色" sheetId="2" r:id="rId1"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="236">
   <si>
     <t>冰</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -569,18 +575,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>裝備種類</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -812,18 +806,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等級</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品質</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>獲得順序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>怪物魂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -893,13 +875,97 @@
   </si>
   <si>
     <t>char_e06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪待機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪攻擊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大怪待機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大怪攻擊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射出物特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物死亡特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物自爆特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家死亡特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家重生特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家變身解除特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家攻擊特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>場景裝飾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地牢出口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪靈魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具ICON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>進度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左右攻擊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衝刺擊殺怪物才不會彈開</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衝刺後有短暫動作暫停，非CD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1104,7 +1170,7 @@
         <xdr:cNvPr id="2" name="圖片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{354684AF-11E1-48AB-8386-C0DD0F34485B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{354684AF-11E1-48AB-8386-C0DD0F34485B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1148,7 +1214,7 @@
         <xdr:cNvPr id="3" name="圖片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4E78D240-9402-441E-8D8B-7F6C3515CF3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E78D240-9402-441E-8D8B-7F6C3515CF3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1192,7 +1258,7 @@
         <xdr:cNvPr id="4" name="圖片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A66EDA4-1288-4500-A443-AEC72B465A7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A66EDA4-1288-4500-A443-AEC72B465A7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1510,17 +1576,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -1582,11 +1648,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1631,7 +1697,7 @@
         <v>37</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -1639,11 +1705,11 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D3" s="3">
         <v>0.5</v>
@@ -1653,7 +1719,7 @@
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="8" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
@@ -1677,7 +1743,7 @@
         <v>36</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="33" x14ac:dyDescent="0.25">
@@ -1696,7 +1762,7 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="8" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1716,7 +1782,7 @@
         <v>81</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>108</v>
@@ -1738,7 +1804,7 @@
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="8" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="J7" t="s">
         <v>109</v>
@@ -1760,7 +1826,7 @@
         <v>81</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="J8" t="s">
         <v>110</v>
@@ -1785,7 +1851,7 @@
         <v>133</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="J9" t="s">
         <v>111</v>
@@ -1810,7 +1876,7 @@
         <v>134</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="J10" t="s">
         <v>120</v>
@@ -1835,7 +1901,7 @@
         <v>132</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="J11" t="s">
         <v>130</v>
@@ -1856,7 +1922,7 @@
         <v>80</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>112</v>
@@ -1878,7 +1944,7 @@
         <v>131</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="J13" t="s">
         <v>126</v>
@@ -1962,11 +2028,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2025,13 +2091,13 @@
         <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="U8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
@@ -2045,16 +2111,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="T9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
@@ -2071,67 +2137,67 @@
         <v>33</v>
       </c>
       <c r="O10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C12" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="S12" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I13" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="S13" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="U13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="V13" s="14">
         <v>0.8</v>
@@ -2145,19 +2211,19 @@
         <v>50</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J14" t="s">
         <v>20</v>
       </c>
       <c r="O14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="S14" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="U14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="V14" s="14">
         <f>(1-$V$13)*W14</f>
@@ -2178,16 +2244,16 @@
         <v>51</v>
       </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O15" t="s">
         <v>9</v>
       </c>
       <c r="U15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="V15" s="14">
         <f t="shared" ref="V15:V18" si="0">(1-$V$13)*W15</f>
@@ -2208,16 +2274,16 @@
         <v>54</v>
       </c>
       <c r="I16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="U16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="V16" s="14">
         <f t="shared" si="0"/>
@@ -2238,13 +2304,13 @@
         <v>61</v>
       </c>
       <c r="I17" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J17" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="U17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="V17" s="14">
         <f t="shared" si="0"/>
@@ -2262,7 +2328,7 @@
         <v>31</v>
       </c>
       <c r="U18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="V18" s="14">
         <f t="shared" si="0"/>
@@ -2280,10 +2346,10 @@
         <v>25</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="W19" s="14">
         <f>SUM(W14:W18)</f>
@@ -2307,22 +2373,22 @@
         <v>20</v>
       </c>
       <c r="M20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O20" t="s">
+        <v>145</v>
+      </c>
+      <c r="P20" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>147</v>
+      </c>
+      <c r="R20" t="s">
         <v>148</v>
       </c>
-      <c r="P20" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>150</v>
-      </c>
-      <c r="R20" t="s">
-        <v>151</v>
-      </c>
       <c r="S20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
@@ -2342,19 +2408,19 @@
         <v>23</v>
       </c>
       <c r="M21" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P21" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q21" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="R21" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="S21" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
@@ -2368,19 +2434,19 @@
         <v>28</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I22" s="15" t="s">
         <v>60</v>
       </c>
       <c r="K22" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M22" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="R22" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
@@ -2394,10 +2460,10 @@
         <v>96</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M23" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
@@ -2442,10 +2508,10 @@
         <v>53</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P26" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
@@ -2453,16 +2519,16 @@
         <v>30</v>
       </c>
       <c r="J27" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="K27" t="s">
         <v>60</v>
       </c>
       <c r="O27" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P27" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
@@ -2470,33 +2536,33 @@
         <v>62</v>
       </c>
       <c r="J28" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="K28" t="s">
         <v>96</v>
       </c>
       <c r="O28" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P28" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J29" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="K29" t="s">
         <v>97</v>
       </c>
       <c r="O29" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P29" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
@@ -2504,10 +2570,10 @@
         <v>98</v>
       </c>
       <c r="O30" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="P30" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
@@ -2515,10 +2581,10 @@
         <v>99</v>
       </c>
       <c r="O31" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P31" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.25">
@@ -2526,10 +2592,10 @@
         <v>62</v>
       </c>
       <c r="O32" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P32" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="11:11" x14ac:dyDescent="0.25">
@@ -2555,7 +2621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
@@ -2571,7 +2637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2632,14 +2698,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
@@ -2648,83 +2717,212 @@
       <c r="C1" s="10" t="s">
         <v>136</v>
       </c>
+      <c r="D1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>101</v>
       </c>
-      <c r="C2" t="s">
-        <v>137</v>
+      <c r="C2" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="D2">
         <v>11</v>
       </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>138</v>
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>103</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>102</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>198</v>
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>199</v>
+      <c r="C10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>200</v>
+      <c r="C11" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>103</v>
+      <c r="C12" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>102</v>
+      <c r="C13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>106</v>
+      <c r="C14" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>227</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/JumpingDungeon/Designer/真英雄30秒.xlsx
+++ b/JumpingDungeon/Designer/真英雄30秒.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\JumpingDungeon\JumpingDungeon\Designer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D231049B-048F-48B8-AC65-8D29C02B83E9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D6753F-6AAF-405C-A7E7-0234307E3421}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1652,7 +1652,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
